--- a/usepa_omega2/test_inputs/single_session_batch_double.xlsx
+++ b/usepa_omega2/test_inputs/single_session_batch_double.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\GitHub\EPA_OMEGA_Model\usepa_omega2\test_inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D44E538-3388-4D6E-B08D-97ACF7CBC7B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79557500-3473-4D9C-BC22-CD608F0E6F67}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5745" yWindow="150" windowWidth="26265" windowHeight="18915" tabRatio="151" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15195" yWindow="675" windowWidth="21705" windowHeight="18345" tabRatio="151" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sessions" sheetId="5" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="77">
   <si>
     <t>Parameter</t>
   </si>
@@ -116,9 +116,6 @@
     <t>ReferencePolicy</t>
   </si>
   <si>
-    <t>single_session_batch</t>
-  </si>
-  <si>
     <t>Context Folder Name</t>
   </si>
   <si>
@@ -212,9 +209,6 @@
     <t>context_fuel_prices.csv</t>
   </si>
   <si>
-    <t>context_fuel_upstream.csv</t>
-  </si>
-  <si>
     <t>context_new_vehicle_market.csv</t>
   </si>
   <si>
@@ -236,25 +230,43 @@
     <t>annual_vmt_fixed_by_age.csv</t>
   </si>
   <si>
-    <t>context_cost_factors-criteria.csv</t>
-  </si>
-  <si>
-    <t>context_cost_factors-scc.csv</t>
-  </si>
-  <si>
-    <t>context_emission_factors-powersector.csv</t>
-  </si>
-  <si>
-    <t>context_emission_factors-refinery.csv</t>
-  </si>
-  <si>
-    <t>context_emission_factors-vehicles.csv</t>
-  </si>
-  <si>
-    <t>context_implicit_price_deflators.csv</t>
-  </si>
-  <si>
-    <t>context_cpi_price_deflators.csv</t>
+    <t>fuel_upstream.csv</t>
+  </si>
+  <si>
+    <t>cost_factors-criteria.csv</t>
+  </si>
+  <si>
+    <t>cost_factors-scc.csv</t>
+  </si>
+  <si>
+    <t>cost_factors-energysecurity.csv</t>
+  </si>
+  <si>
+    <t>cost_factors-congestion-noise.csv</t>
+  </si>
+  <si>
+    <t>emission_factors-powersector.csv</t>
+  </si>
+  <si>
+    <t>emission_factors-refinery.csv</t>
+  </si>
+  <si>
+    <t>emission_factors-vehicles.csv</t>
+  </si>
+  <si>
+    <t>implicit_price_deflators.csv</t>
+  </si>
+  <si>
+    <t>cpi_price_deflators.csv</t>
+  </si>
+  <si>
+    <t>Context Energy Security Cost Factors File</t>
+  </si>
+  <si>
+    <t>Context Congestion-Noise Cost Factors File</t>
+  </si>
+  <si>
+    <t>single_session_batch_double</t>
   </si>
 </sst>
 </file>
@@ -750,11 +762,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AG48"/>
+  <dimension ref="A1:AG50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
+      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -838,7 +850,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>26</v>
+        <v>76</v>
       </c>
       <c r="D3" s="14"/>
       <c r="E3" s="14"/>
@@ -857,7 +869,7 @@
     </row>
     <row r="4" spans="1:33" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>3</v>
@@ -880,13 +892,13 @@
     </row>
     <row r="5" spans="1:33" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D5" s="14"/>
       <c r="E5" s="14"/>
@@ -905,13 +917,13 @@
     </row>
     <row r="6" spans="1:33" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D6" s="14"/>
       <c r="E6" s="14"/>
@@ -1006,7 +1018,7 @@
         <v>25</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E10" s="9"/>
       <c r="F10" s="9"/>
@@ -1074,10 +1086,10 @@
         <v>3</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
@@ -1103,10 +1115,10 @@
         <v>3</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
@@ -1132,10 +1144,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
@@ -1161,10 +1173,10 @@
         <v>3</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
@@ -1190,10 +1202,10 @@
         <v>3</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
@@ -1213,16 +1225,16 @@
     </row>
     <row r="18" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
@@ -1242,16 +1254,16 @@
     </row>
     <row r="19" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
@@ -1271,16 +1283,16 @@
     </row>
     <row r="20" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
@@ -1306,10 +1318,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
@@ -1335,10 +1347,10 @@
         <v>3</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E22" s="10"/>
       <c r="F22" s="10"/>
@@ -1358,16 +1370,16 @@
     </row>
     <row r="23" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
@@ -1387,16 +1399,16 @@
     </row>
     <row r="24" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
@@ -1416,16 +1428,16 @@
     </row>
     <row r="25" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
@@ -1445,16 +1457,16 @@
     </row>
     <row r="26" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
@@ -1591,7 +1603,7 @@
     </row>
     <row r="32" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>13</v>
@@ -1620,7 +1632,7 @@
     </row>
     <row r="33" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>13</v>
@@ -1634,7 +1646,7 @@
     </row>
     <row r="34" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>13</v>
@@ -1721,7 +1733,7 @@
     </row>
     <row r="37" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>11</v>
@@ -1750,7 +1762,7 @@
     </row>
     <row r="38" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>13</v>
@@ -1822,16 +1834,16 @@
     </row>
     <row r="42" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
@@ -1851,16 +1863,16 @@
     </row>
     <row r="43" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
@@ -1880,16 +1892,16 @@
     </row>
     <row r="44" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="10" t="s">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
@@ -1909,16 +1921,16 @@
     </row>
     <row r="45" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="10" t="s">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
@@ -1938,16 +1950,16 @@
     </row>
     <row r="46" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="10" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
@@ -1967,16 +1979,16 @@
     </row>
     <row r="47" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="10" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
@@ -1995,17 +2007,17 @@
       <c r="S47" s="8"/>
     </row>
     <row r="48" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="8" t="s">
-        <v>47</v>
+      <c r="A48" s="10" t="s">
+        <v>44</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
@@ -2023,6 +2035,34 @@
       <c r="R48" s="8"/>
       <c r="S48" s="8"/>
     </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>73</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
